--- a/testlab-db/neware_database_master2.xlsx
+++ b/testlab-db/neware_database_master2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://basquevolt-my.sharepoint.com/personal/ecalandrini_basquevolt_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://basquevolt-my.sharepoint.com/personal/ecalandrini_basquevolt_com/Documents/Documents/Lavoro/Software/NewareDB/testlab-db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="8_{F5CC27F1-63FB-4B55-A392-FA796873BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD856C5A-0BF9-42CC-989A-C1BC89821C40}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="8_{F5CC27F1-63FB-4B55-A392-FA796873BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46276A4B-E17D-4221-9755-05CEF8456E6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{F9E3BB05-05FB-4358-BC5E-97EF2B4FB956}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="455">
   <si>
     <t>computer_name</t>
   </si>
@@ -1412,6 +1411,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>`150</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,27 +1472,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1511,19 +1509,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1539,6 +1528,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1563,7 +1558,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1581,7 +1576,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1600,7 +1595,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C8377FB-319E-4420-8BA9-9AF9251A47C7}" name="Table3" displayName="Table3" ref="B1:H181" totalsRowShown="0">
   <autoFilter ref="B1:H181" xr:uid="{5C8377FB-319E-4420-8BA9-9AF9251A47C7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BB1DEBC8-1493-445A-87EB-1606670E3BBB}" name="field" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{BB1DEBC8-1493-445A-87EB-1606670E3BBB}" name="field" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{B28FB4D5-E31A-41F4-AD23-51BD6DF71FAF}" name="type"/>
     <tableColumn id="4" xr3:uid="{8F44BED1-B6E3-49B3-A17B-999175BC9735}" name="unit"/>
     <tableColumn id="6" xr3:uid="{A9B4D94A-D9A1-4B55-83CB-1D1B02FB7781}" name="length"/>
@@ -1613,13 +1608,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48C05E66-81AC-4D0C-9645-5024ED921329}" name="Table1" displayName="Table1" ref="T2:W21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48C05E66-81AC-4D0C-9645-5024ED921329}" name="Table1" displayName="Table1" ref="T2:W21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="T2:W21" xr:uid="{48C05E66-81AC-4D0C-9645-5024ED921329}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A6BA8AE1-1358-4AF8-AC72-A731CABE246C}" name="vicarli_item" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5645BD8F-98EF-4E79-BED6-C6BCB8966722}" name="cell_type" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{E773AF5A-1D5F-4CA7-A3B2-70DE176532D1}" name="area" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{CEE92629-3559-4A44-97C6-B0A7D13939E6}" name="nominal_capacity" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{A6BA8AE1-1358-4AF8-AC72-A731CABE246C}" name="vicarli_item" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5645BD8F-98EF-4E79-BED6-C6BCB8966722}" name="cell_type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E773AF5A-1D5F-4CA7-A3B2-70DE176532D1}" name="area" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CEE92629-3559-4A44-97C6-B0A7D13939E6}" name="nominal_capacity" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1630,7 +1625,7 @@
   <autoFilter ref="A1:K210" xr:uid="{2AF3C50B-29E8-4820-8C07-E4AE3DEFB3B3}">
     <filterColumn colId="0">
       <filters>
-        <filter val="schedule"/>
+        <filter val="log"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -1640,17 +1635,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="10" xr3:uid="{92EE65FD-B353-4319-81D7-C285F4AD81BC}" name="Table" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{6FBE4430-8B53-4538-BDB2-2ACCD072688D}" name="Select" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BB94BFE0-6804-4C11-83D3-C8925622493E}" name="Parameter" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8E27EA2D-7237-4A8F-A0FC-F37C8A60B07F}" name="Unit" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FD36DF57-814A-4837-8E62-D2E3833FA678}" name="Decimal point" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{BC746474-C1DB-48FA-AA6B-3BF2B0804B29}" name="Type of data" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{F16C4F0B-9358-4158-928E-69DF6817EA33}" name="Length string" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8A13B090-B3FD-493A-8053-85BAF0ED6041}" name="Field name" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7841A809-6879-4FB2-961E-030A050947EF}" name="Default value" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{5F02B43E-04A6-4383-A2D6-DD84FE68F3FC}" name="Primary Key" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{A31E001B-1D4A-4F8B-9402-56230F9BA686}" name="new name" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{92EE65FD-B353-4319-81D7-C285F4AD81BC}" name="Table" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6FBE4430-8B53-4538-BDB2-2ACCD072688D}" name="Select" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BB94BFE0-6804-4C11-83D3-C8925622493E}" name="Parameter" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8E27EA2D-7237-4A8F-A0FC-F37C8A60B07F}" name="Unit" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FD36DF57-814A-4837-8E62-D2E3833FA678}" name="Decimal point" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BC746474-C1DB-48FA-AA6B-3BF2B0804B29}" name="Type of data" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F16C4F0B-9358-4158-928E-69DF6817EA33}" name="Length string" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{8A13B090-B3FD-493A-8053-85BAF0ED6041}" name="Field name" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7841A809-6879-4FB2-961E-030A050947EF}" name="Default value" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{5F02B43E-04A6-4383-A2D6-DD84FE68F3FC}" name="Primary Key" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A31E001B-1D4A-4F8B-9402-56230F9BA686}" name="new name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1976,7 +1971,7 @@
   <dimension ref="A1:W187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I1" sqref="I1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2053,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2113,7 +2108,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
@@ -2163,7 +2158,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
@@ -2213,7 +2208,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
@@ -2261,7 +2256,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
@@ -2305,7 +2300,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
@@ -2352,7 +2347,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
@@ -2399,7 +2394,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
@@ -2443,7 +2438,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
@@ -2487,7 +2482,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
@@ -2531,7 +2526,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
@@ -2573,7 +2568,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
@@ -2617,7 +2612,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>117</v>
       </c>
@@ -2659,7 +2654,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
@@ -2701,7 +2696,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2749,7 +2744,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>103</v>
       </c>
@@ -2799,7 +2794,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +2839,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -2886,7 +2881,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2922,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2975,7 +2970,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3005,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3040,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>178</v>
       </c>
@@ -3080,7 +3075,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>179</v>
       </c>
@@ -3115,7 +3110,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>180</v>
       </c>
@@ -3150,7 +3145,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
         <v>181</v>
       </c>
@@ -3185,7 +3180,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="2" t="s">
         <v>182</v>
       </c>
@@ -3220,7 +3215,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
         <v>183</v>
       </c>
@@ -3255,7 +3250,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>184</v>
       </c>
@@ -3290,7 +3285,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>185</v>
       </c>
@@ -3325,7 +3320,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
         <v>104</v>
       </c>
@@ -3360,7 +3355,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>105</v>
       </c>
@@ -3395,7 +3390,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
@@ -3430,7 +3425,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
@@ -3465,7 +3460,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
         <v>108</v>
       </c>
@@ -3500,7 +3495,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
         <v>109</v>
       </c>
@@ -3535,7 +3530,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>110</v>
       </c>
@@ -3570,7 +3565,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>111</v>
       </c>
@@ -3605,7 +3600,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
         <v>112</v>
       </c>
@@ -3640,7 +3635,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3667,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
@@ -3704,7 +3699,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
@@ -3736,7 +3731,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>10</v>
       </c>
@@ -3771,7 +3766,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3801,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
@@ -3841,7 +3836,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
         <v>13</v>
       </c>
@@ -3876,7 +3871,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
@@ -3911,7 +3906,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3945,7 +3940,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
@@ -3977,7 +3972,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
@@ -4012,7 +4007,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
@@ -4047,7 +4042,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
         <v>24</v>
       </c>
@@ -4082,7 +4077,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="2" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4109,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -4149,7 +4144,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
         <v>27</v>
       </c>
@@ -4184,7 +4179,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
@@ -4219,7 +4214,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="2" t="s">
         <v>29</v>
       </c>
@@ -4254,7 +4249,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
@@ -4289,7 +4284,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
@@ -4324,7 +4319,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="2" t="s">
         <v>92</v>
       </c>
@@ -4359,7 +4354,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="2" t="s">
         <v>93</v>
       </c>
@@ -4394,7 +4389,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="2" t="s">
         <v>32</v>
       </c>
@@ -4429,7 +4424,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="2" t="s">
         <v>118</v>
       </c>
@@ -4464,7 +4459,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="2" t="s">
         <v>33</v>
       </c>
@@ -4499,7 +4494,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
@@ -4534,7 +4529,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="2" t="s">
         <v>35</v>
       </c>
@@ -4569,7 +4564,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="2" t="s">
         <v>36</v>
       </c>
@@ -4604,7 +4599,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="2" t="s">
         <v>37</v>
       </c>
@@ -4639,7 +4634,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="2" t="s">
         <v>53</v>
       </c>
@@ -4674,7 +4669,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
@@ -4709,7 +4704,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="2" t="s">
         <v>38</v>
       </c>
@@ -4744,7 +4739,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="2" t="s">
         <v>39</v>
       </c>
@@ -4779,7 +4774,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="2" t="s">
         <v>40</v>
       </c>
@@ -4817,7 +4812,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="2" t="s">
         <v>41</v>
       </c>
@@ -4849,7 +4844,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="2" t="s">
         <v>42</v>
       </c>
@@ -4881,7 +4876,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="2" t="s">
         <v>43</v>
       </c>
@@ -4913,7 +4908,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4947,7 +4942,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
@@ -4979,7 +4974,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
@@ -5014,7 +5009,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="1" t="s">
         <v>23</v>
       </c>
@@ -5049,7 +5044,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+      <c r="A82" s="5"/>
       <c r="B82" s="1" t="s">
         <v>24</v>
       </c>
@@ -5084,7 +5079,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="1" t="s">
         <v>25</v>
       </c>
@@ -5116,7 +5111,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="A84" s="5"/>
       <c r="B84" s="1" t="s">
         <v>45</v>
       </c>
@@ -5148,7 +5143,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="1" t="s">
         <v>46</v>
       </c>
@@ -5180,7 +5175,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="1" t="s">
         <v>47</v>
       </c>
@@ -5215,7 +5210,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="1" t="s">
         <v>191</v>
       </c>
@@ -5253,7 +5248,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="1" t="s">
         <v>28</v>
       </c>
@@ -5288,7 +5283,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="1" t="s">
         <v>29</v>
       </c>
@@ -5323,7 +5318,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="5"/>
       <c r="B90" s="1" t="s">
         <v>30</v>
       </c>
@@ -5355,7 +5350,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="1" t="s">
         <v>88</v>
       </c>
@@ -5390,7 +5385,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="1" t="s">
         <v>89</v>
       </c>
@@ -5425,7 +5420,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="1" t="s">
         <v>31</v>
       </c>
@@ -5457,7 +5452,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="5"/>
       <c r="B94" s="1" t="s">
         <v>119</v>
       </c>
@@ -5492,7 +5487,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+      <c r="A95" s="5"/>
       <c r="B95" s="1" t="s">
         <v>121</v>
       </c>
@@ -5527,7 +5522,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="5"/>
       <c r="B96" s="1" t="s">
         <v>90</v>
       </c>
@@ -5562,7 +5557,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
+      <c r="A97" s="5"/>
       <c r="B97" s="1" t="s">
         <v>91</v>
       </c>
@@ -5597,7 +5592,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="5"/>
       <c r="B98" s="1" t="s">
         <v>49</v>
       </c>
@@ -5632,7 +5627,7 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="5"/>
       <c r="B99" s="1" t="s">
         <v>50</v>
       </c>
@@ -5667,7 +5662,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="5"/>
       <c r="B100" s="1" t="s">
         <v>51</v>
       </c>
@@ -5702,7 +5697,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="1" t="s">
         <v>32</v>
       </c>
@@ -5737,7 +5732,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="5"/>
       <c r="B102" s="1" t="s">
         <v>118</v>
       </c>
@@ -5772,7 +5767,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="1" t="s">
         <v>52</v>
       </c>
@@ -5807,7 +5802,7 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="5"/>
       <c r="B104" s="1" t="s">
         <v>53</v>
       </c>
@@ -5842,7 +5837,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="5"/>
       <c r="B105" s="1" t="s">
         <v>14</v>
       </c>
@@ -5877,7 +5872,7 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -5911,7 +5906,7 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="2" t="s">
         <v>21</v>
       </c>
@@ -5943,7 +5938,7 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="2" t="s">
         <v>22</v>
       </c>
@@ -5978,7 +5973,7 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="5"/>
       <c r="B109" s="2" t="s">
         <v>23</v>
       </c>
@@ -6013,7 +6008,7 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+      <c r="A110" s="5"/>
       <c r="B110" s="2" t="s">
         <v>24</v>
       </c>
@@ -6048,7 +6043,7 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="2" t="s">
         <v>25</v>
       </c>
@@ -6080,7 +6075,7 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
+      <c r="A112" s="5"/>
       <c r="B112" s="2" t="s">
         <v>45</v>
       </c>
@@ -6112,7 +6107,7 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+      <c r="A113" s="5"/>
       <c r="B113" s="2" t="s">
         <v>46</v>
       </c>
@@ -6144,7 +6139,7 @@
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="5"/>
       <c r="B114" s="2" t="s">
         <v>55</v>
       </c>
@@ -6176,7 +6171,7 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="5"/>
       <c r="B115" s="2" t="s">
         <v>47</v>
       </c>
@@ -6211,7 +6206,7 @@
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="5"/>
       <c r="B116" s="2" t="s">
         <v>56</v>
       </c>
@@ -6246,7 +6241,7 @@
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="5"/>
       <c r="B117" s="2" t="s">
         <v>4</v>
       </c>
@@ -6281,7 +6276,7 @@
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="5"/>
       <c r="B118" s="2" t="s">
         <v>5</v>
       </c>
@@ -6316,7 +6311,7 @@
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="5"/>
       <c r="B119" s="2" t="s">
         <v>57</v>
       </c>
@@ -6351,7 +6346,7 @@
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="5"/>
       <c r="B120" s="2" t="s">
         <v>58</v>
       </c>
@@ -6386,7 +6381,7 @@
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="2" t="s">
         <v>6</v>
       </c>
@@ -6421,7 +6416,7 @@
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+      <c r="A122" s="5"/>
       <c r="B122" s="2" t="s">
         <v>115</v>
       </c>
@@ -6456,7 +6451,7 @@
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="5"/>
       <c r="B123" s="2" t="s">
         <v>59</v>
       </c>
@@ -6494,7 +6489,7 @@
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="5"/>
       <c r="B124" s="2" t="s">
         <v>32</v>
       </c>
@@ -6529,7 +6524,7 @@
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="5"/>
       <c r="B125" s="2" t="s">
         <v>122</v>
       </c>
@@ -6564,7 +6559,7 @@
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="5"/>
       <c r="B126" s="2" t="s">
         <v>113</v>
       </c>
@@ -6599,7 +6594,7 @@
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="2" t="s">
         <v>39</v>
       </c>
@@ -6634,7 +6629,7 @@
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+      <c r="A128" s="5"/>
       <c r="B128" s="2" t="s">
         <v>38</v>
       </c>
@@ -6669,7 +6664,7 @@
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="2" t="s">
         <v>40</v>
       </c>
@@ -6707,7 +6702,7 @@
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
+      <c r="A130" s="5"/>
       <c r="B130" s="2" t="s">
         <v>60</v>
       </c>
@@ -6742,7 +6737,7 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
+      <c r="A131" s="5"/>
       <c r="B131" s="2" t="s">
         <v>61</v>
       </c>
@@ -6777,7 +6772,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
+      <c r="A132" s="5"/>
       <c r="B132" s="2" t="s">
         <v>62</v>
       </c>
@@ -6812,7 +6807,7 @@
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -6846,7 +6841,7 @@
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+      <c r="A134" s="5"/>
       <c r="B134" s="2" t="s">
         <v>21</v>
       </c>
@@ -6878,7 +6873,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A135" s="5"/>
       <c r="B135" s="2" t="s">
         <v>22</v>
       </c>
@@ -6913,7 +6908,7 @@
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
+      <c r="A136" s="5"/>
       <c r="B136" s="2" t="s">
         <v>23</v>
       </c>
@@ -6948,7 +6943,7 @@
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
+      <c r="A137" s="5"/>
       <c r="B137" s="2" t="s">
         <v>24</v>
       </c>
@@ -6983,7 +6978,7 @@
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
+      <c r="A138" s="5"/>
       <c r="B138" s="2" t="s">
         <v>46</v>
       </c>
@@ -7015,7 +7010,7 @@
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
+      <c r="A139" s="5"/>
       <c r="B139" s="2" t="s">
         <v>47</v>
       </c>
@@ -7050,7 +7045,7 @@
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
+      <c r="A140" s="5"/>
       <c r="B140" s="2" t="s">
         <v>191</v>
       </c>
@@ -7091,7 +7086,7 @@
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
+      <c r="A141" s="5"/>
       <c r="B141" s="2" t="s">
         <v>64</v>
       </c>
@@ -7126,7 +7121,7 @@
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
+      <c r="A142" s="5"/>
       <c r="B142" s="2" t="s">
         <v>65</v>
       </c>
@@ -7161,7 +7156,7 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
+      <c r="A143" s="5"/>
       <c r="B143" s="2" t="s">
         <v>66</v>
       </c>
@@ -7196,7 +7191,7 @@
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
+      <c r="A144" s="5"/>
       <c r="B144" s="2" t="s">
         <v>67</v>
       </c>
@@ -7231,7 +7226,7 @@
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
+      <c r="A145" s="5"/>
       <c r="B145" s="2" t="s">
         <v>68</v>
       </c>
@@ -7266,7 +7261,7 @@
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
+      <c r="A146" s="5"/>
       <c r="B146" s="2" t="s">
         <v>58</v>
       </c>
@@ -7301,7 +7296,7 @@
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
+      <c r="A147" s="5"/>
       <c r="B147" s="2" t="s">
         <v>69</v>
       </c>
@@ -7336,7 +7331,7 @@
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="5"/>
       <c r="B148" s="2" t="s">
         <v>6</v>
       </c>
@@ -7371,7 +7366,7 @@
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="5"/>
       <c r="B149" s="2" t="s">
         <v>70</v>
       </c>
@@ -7406,7 +7401,7 @@
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="A150" s="5"/>
       <c r="B150" s="2" t="s">
         <v>57</v>
       </c>
@@ -7441,7 +7436,7 @@
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+      <c r="A151" s="5"/>
       <c r="B151" s="2" t="s">
         <v>71</v>
       </c>
@@ -7479,7 +7474,7 @@
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
+      <c r="A152" s="5"/>
       <c r="B152" s="2" t="s">
         <v>72</v>
       </c>
@@ -7517,7 +7512,7 @@
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="5"/>
       <c r="B153" s="2" t="s">
         <v>73</v>
       </c>
@@ -7552,7 +7547,7 @@
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A154" s="5"/>
       <c r="B154" s="2" t="s">
         <v>74</v>
       </c>
@@ -7587,7 +7582,7 @@
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="5"/>
       <c r="B155" s="2" t="s">
         <v>75</v>
       </c>
@@ -7622,7 +7617,7 @@
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="2" t="s">
         <v>76</v>
       </c>
@@ -7657,7 +7652,7 @@
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
+      <c r="A157" s="5"/>
       <c r="B157" s="2" t="s">
         <v>77</v>
       </c>
@@ -7692,7 +7687,7 @@
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="5"/>
       <c r="B158" s="2" t="s">
         <v>78</v>
       </c>
@@ -7727,7 +7722,7 @@
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="5"/>
       <c r="B159" s="1" t="s">
         <v>53</v>
       </c>
@@ -7762,7 +7757,7 @@
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
+      <c r="A160" s="5"/>
       <c r="B160" s="1" t="s">
         <v>14</v>
       </c>
@@ -7797,7 +7792,7 @@
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
+      <c r="A161" s="5"/>
       <c r="B161" s="2" t="s">
         <v>118</v>
       </c>
@@ -7832,7 +7827,7 @@
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
+      <c r="A162" s="5"/>
       <c r="B162" s="2" t="s">
         <v>123</v>
       </c>
@@ -7867,7 +7862,7 @@
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="5"/>
       <c r="B163" s="2" t="s">
         <v>124</v>
       </c>
@@ -7902,7 +7897,7 @@
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
+      <c r="A164" s="5"/>
       <c r="B164" s="2" t="s">
         <v>125</v>
       </c>
@@ -7937,7 +7932,7 @@
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
+      <c r="A165" s="5"/>
       <c r="B165" s="2" t="s">
         <v>79</v>
       </c>
@@ -7972,7 +7967,7 @@
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+      <c r="A166" s="5"/>
       <c r="B166" s="2" t="s">
         <v>116</v>
       </c>
@@ -8007,7 +8002,7 @@
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
+      <c r="A167" s="5"/>
       <c r="B167" s="2" t="s">
         <v>80</v>
       </c>
@@ -8039,7 +8034,7 @@
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
+      <c r="A168" s="5"/>
       <c r="B168" s="2" t="s">
         <v>81</v>
       </c>
@@ -8071,7 +8066,7 @@
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+      <c r="A169" s="5"/>
       <c r="B169" s="2" t="s">
         <v>13</v>
       </c>
@@ -8106,7 +8101,7 @@
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
+      <c r="A170" s="5"/>
       <c r="B170" s="2" t="s">
         <v>82</v>
       </c>
@@ -8141,7 +8136,7 @@
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
+      <c r="A171" s="5"/>
       <c r="B171" s="2" t="s">
         <v>83</v>
       </c>
@@ -8176,7 +8171,7 @@
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -8210,7 +8205,7 @@
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
+      <c r="A173" s="5"/>
       <c r="B173" s="2" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8237,7 @@
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
+      <c r="A174" s="5"/>
       <c r="B174" s="2" t="s">
         <v>22</v>
       </c>
@@ -8277,7 +8272,7 @@
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+      <c r="A175" s="5"/>
       <c r="B175" s="2" t="s">
         <v>23</v>
       </c>
@@ -8312,7 +8307,7 @@
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
+      <c r="A176" s="5"/>
       <c r="B176" s="2" t="s">
         <v>133</v>
       </c>
@@ -8347,7 +8342,7 @@
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
+      <c r="A177" s="5"/>
       <c r="B177" s="2" t="s">
         <v>24</v>
       </c>
@@ -8382,7 +8377,7 @@
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
+      <c r="A178" s="5"/>
       <c r="B178" s="2" t="s">
         <v>134</v>
       </c>
@@ -8417,7 +8412,7 @@
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
+      <c r="A179" s="5"/>
       <c r="B179" s="2" t="s">
         <v>135</v>
       </c>
@@ -8452,7 +8447,7 @@
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
+      <c r="A180" s="5"/>
       <c r="B180" s="2" t="s">
         <v>136</v>
       </c>
@@ -8487,7 +8482,7 @@
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
+      <c r="A181" s="5"/>
       <c r="B181" s="2" t="s">
         <v>13</v>
       </c>
@@ -8576,14 +8571,14 @@
   <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -8591,80 +8586,79 @@
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="2">
         <v>20</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J2" s="8"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D3" s="2"/>
@@ -8678,22 +8672,22 @@
       <c r="H3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J3" s="8"/>
+      <c r="I3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="2"/>
@@ -8707,22 +8701,22 @@
       <c r="H4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="I4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D5" s="2"/>
@@ -8736,22 +8730,22 @@
       <c r="H5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D6" s="2"/>
@@ -8765,20 +8759,20 @@
       <c r="H6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D7" s="2"/>
@@ -8790,22 +8784,22 @@
       <c r="H7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="I7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="2"/>
@@ -8821,10 +8815,10 @@
       <c r="H8" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="2" t="s">
         <v>453</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -8832,13 +8826,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D9" s="2"/>
@@ -8850,20 +8844,20 @@
       <c r="H9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D10" s="2"/>
@@ -8875,20 +8869,20 @@
       <c r="H10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D11" s="2"/>
@@ -8900,20 +8894,20 @@
       <c r="H11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D12" s="2"/>
@@ -8925,20 +8919,20 @@
       <c r="H12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D13" s="2"/>
@@ -8952,22 +8946,22 @@
       <c r="H13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="I13" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="2"/>
@@ -8979,20 +8973,20 @@
       <c r="H14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D15" s="2"/>
@@ -9006,22 +9000,22 @@
       <c r="H15" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="I15" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -9037,22 +9031,22 @@
       <c r="H16" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="I16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -9068,22 +9062,22 @@
       <c r="H17" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D18" s="2"/>
@@ -9097,20 +9091,20 @@
       <c r="H18" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D19" s="2"/>
@@ -9122,20 +9116,20 @@
       <c r="H19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D20" s="2"/>
@@ -9147,20 +9141,20 @@
       <c r="H20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -9176,20 +9170,20 @@
       <c r="H21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -9205,20 +9199,20 @@
       <c r="H22" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -9234,20 +9228,20 @@
       <c r="H23" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -9263,22 +9257,22 @@
       <c r="H24" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J24" s="8"/>
+      <c r="I24" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -9294,22 +9288,22 @@
       <c r="H25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J25" s="8"/>
+      <c r="I25" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -9325,22 +9319,22 @@
       <c r="H26" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J26" s="8"/>
+      <c r="I26" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -9356,22 +9350,22 @@
       <c r="H27" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J27" s="8"/>
+      <c r="I27" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -9387,22 +9381,22 @@
       <c r="H28" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J28" s="8"/>
+      <c r="I28" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>256</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -9418,22 +9412,22 @@
       <c r="H29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J29" s="8"/>
+      <c r="I29" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -9449,22 +9443,22 @@
       <c r="H30" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J30" s="8"/>
+      <c r="I30" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -9480,22 +9474,22 @@
       <c r="H31" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J31" s="8"/>
+      <c r="I31" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>262</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -9511,22 +9505,22 @@
       <c r="H32" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J32" s="8"/>
+      <c r="I32" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -9542,22 +9536,22 @@
       <c r="H33" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J33" s="8"/>
+      <c r="I33" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -9573,22 +9567,22 @@
       <c r="H34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J34" s="8"/>
+      <c r="I34" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -9604,22 +9598,22 @@
       <c r="H35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J35" s="8"/>
+      <c r="I35" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -9635,22 +9629,22 @@
       <c r="H36" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J36" s="8"/>
+      <c r="I36" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -9666,22 +9660,22 @@
       <c r="H37" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J37" s="8"/>
+      <c r="I37" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -9695,22 +9689,22 @@
       <c r="H38" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J38" s="8"/>
+      <c r="I38" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -9726,22 +9720,22 @@
       <c r="H39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J39" s="8"/>
+      <c r="I39" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -9757,22 +9751,22 @@
       <c r="H40" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J40" s="8"/>
+      <c r="I40" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D41" s="2"/>
@@ -9784,20 +9778,20 @@
       <c r="H41" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="7"/>
+      <c r="I41" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D42" s="2"/>
@@ -9809,20 +9803,20 @@
       <c r="H42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
+      <c r="I42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D43" s="2"/>
@@ -9834,20 +9828,20 @@
       <c r="H43" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="7"/>
+      <c r="I43" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -9861,20 +9855,20 @@
       <c r="H44" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="7"/>
+      <c r="I44" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D45" s="2"/>
@@ -9888,20 +9882,20 @@
       <c r="H45" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="7"/>
+      <c r="I45" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D46" s="2"/>
@@ -9915,20 +9909,20 @@
       <c r="H46" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="7"/>
+      <c r="I46" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -9942,20 +9936,20 @@
       <c r="H47" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="7"/>
+      <c r="I47" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -9969,20 +9963,20 @@
       <c r="H48" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="I48" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5"/>
+      <c r="B49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
@@ -9992,22 +9986,22 @@
       <c r="H49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8" t="s">
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5"/>
+      <c r="B50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
@@ -10017,20 +10011,20 @@
       <c r="H50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="I50" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5"/>
+      <c r="B51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
@@ -10042,20 +10036,20 @@
       <c r="H51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="I51" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D52" s="2"/>
@@ -10069,20 +10063,20 @@
       <c r="H52" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="I52" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D53" s="2"/>
@@ -10096,22 +10090,22 @@
       <c r="H53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D54" s="2"/>
@@ -10125,20 +10119,20 @@
       <c r="H54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="I54" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -10154,20 +10148,20 @@
       <c r="H55" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="I55" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -10181,22 +10175,22 @@
       <c r="H56" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8" t="s">
+      <c r="I56" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -10212,20 +10206,20 @@
       <c r="H57" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="I57" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>303</v>
       </c>
       <c r="D58" s="2"/>
@@ -10237,20 +10231,20 @@
       <c r="H58" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I58" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="I58" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -10266,20 +10260,20 @@
       <c r="H59" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="I59" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D60" s="2"/>
@@ -10291,20 +10285,20 @@
       <c r="H60" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="I60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -10320,20 +10314,20 @@
       <c r="H61" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="I61" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -10349,20 +10343,20 @@
       <c r="H62" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I62" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J62" s="8"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="I62" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -10378,20 +10372,20 @@
       <c r="H63" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="I63" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -10407,20 +10401,20 @@
       <c r="H64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="I64" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -10436,20 +10430,20 @@
       <c r="H65" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="I65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -10465,20 +10459,20 @@
       <c r="H66" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="I66" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -10494,20 +10488,20 @@
       <c r="H67" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="I67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -10523,20 +10517,20 @@
       <c r="H68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I68" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="I68" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -10550,20 +10544,20 @@
       <c r="H69" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I69" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="I69" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="B70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -10577,20 +10571,20 @@
       <c r="H70" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="I70" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="B71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -10604,20 +10598,20 @@
       <c r="H71" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="I71" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -10631,20 +10625,20 @@
       <c r="H72" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="I72" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D73" s="2"/>
@@ -10658,20 +10652,20 @@
       <c r="H73" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="I73" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="5" t="s">
+      <c r="B74" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D74" s="2"/>
@@ -10685,20 +10679,20 @@
       <c r="H74" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="I74" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="B75" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10712,22 +10706,22 @@
       <c r="H75" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J75" s="8"/>
+      <c r="I75" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -10741,22 +10735,22 @@
       <c r="H76" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J76" s="8"/>
+      <c r="I76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J76" s="2"/>
       <c r="K76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D77" s="2"/>
@@ -10770,20 +10764,20 @@
       <c r="H77" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="I77" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D78" s="2"/>
@@ -10797,20 +10791,20 @@
       <c r="H78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I78" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="I78" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D79" s="2"/>
@@ -10824,20 +10818,20 @@
       <c r="H79" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I79" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="I79" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -10851,20 +10845,20 @@
       <c r="H80" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I80" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="I80" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10878,20 +10872,20 @@
       <c r="H81" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I81" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="I81" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D82" s="2"/>
@@ -10903,20 +10897,20 @@
       <c r="H82" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I82" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="I82" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D83" s="2"/>
@@ -10928,20 +10922,20 @@
       <c r="H83" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="I83" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D84" t="s">
@@ -10955,20 +10949,20 @@
       <c r="H84" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I84" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="I84" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D85" s="2"/>
@@ -10982,20 +10976,20 @@
       <c r="H85" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="I85" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D86" s="2"/>
@@ -11009,20 +11003,20 @@
       <c r="H86" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I86" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="I86" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="B87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D87" s="2"/>
@@ -11036,22 +11030,22 @@
       <c r="H87" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J87" s="8"/>
+      <c r="I87" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5"/>
+      <c r="B88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -11061,22 +11055,22 @@
       <c r="H88" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I88" s="8">
-        <v>0</v>
-      </c>
-      <c r="J88" s="8" t="s">
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K88" s="7"/>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C89" s="5"/>
+      <c r="B89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
@@ -11086,20 +11080,20 @@
       <c r="H89" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J89" s="8"/>
-      <c r="K89" s="7"/>
+      <c r="I89" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C90" s="5"/>
+      <c r="B90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -11111,20 +11105,20 @@
       <c r="H90" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J90" s="8"/>
-      <c r="K90" s="7"/>
+      <c r="I90" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="B91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D91" s="2"/>
@@ -11138,20 +11132,20 @@
       <c r="H91" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="7"/>
+      <c r="I91" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="B92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D92" s="2"/>
@@ -11165,22 +11159,22 @@
       <c r="H92" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K92" s="7"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D93" s="2"/>
@@ -11192,20 +11186,20 @@
       <c r="H93" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J93" s="8"/>
-      <c r="K93" s="7"/>
+      <c r="I93" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -11221,20 +11215,20 @@
       <c r="H94" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I94" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="7"/>
+      <c r="I94" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J94" s="2"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -11250,20 +11244,20 @@
       <c r="H95" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="7"/>
+      <c r="I95" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -11279,20 +11273,20 @@
       <c r="H96" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J96" s="8"/>
-      <c r="K96" s="7"/>
+      <c r="I96" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B97" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -11308,20 +11302,20 @@
       <c r="H97" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J97" s="8"/>
-      <c r="K97" s="7"/>
+      <c r="I97" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -11337,22 +11331,22 @@
       <c r="H98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J98" s="8"/>
+      <c r="I98" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J98" s="2"/>
       <c r="K98" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B99" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -11368,22 +11362,22 @@
       <c r="H99" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J99" s="8"/>
+      <c r="I99" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J99" s="2"/>
       <c r="K99" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -11399,22 +11393,22 @@
       <c r="H100" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J100" s="8"/>
+      <c r="I100" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J100" s="2"/>
       <c r="K100" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -11430,22 +11424,22 @@
       <c r="H101" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I101" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J101" s="8"/>
+      <c r="I101" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D102" s="2"/>
@@ -11459,20 +11453,20 @@
       <c r="H102" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I102" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J102" s="8"/>
-      <c r="K102" s="7"/>
+      <c r="I102" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D103" s="2"/>
@@ -11486,20 +11480,20 @@
       <c r="H103" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I103" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J103" s="8"/>
-      <c r="K103" s="7"/>
+      <c r="I103" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -11513,20 +11507,20 @@
       <c r="H104" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J104" s="8"/>
-      <c r="K104" s="7"/>
+      <c r="I104" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J104" s="2"/>
+      <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -11540,20 +11534,20 @@
       <c r="H105" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I105" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J105" s="8"/>
-      <c r="K105" s="7"/>
+      <c r="I105" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J105" s="2"/>
+      <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D106" s="2"/>
@@ -11567,20 +11561,20 @@
       <c r="H106" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J106" s="8"/>
-      <c r="K106" s="7"/>
+      <c r="I106" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J106" s="2"/>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D107" s="2"/>
@@ -11592,20 +11586,20 @@
       <c r="H107" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J107" s="8"/>
-      <c r="K107" s="7"/>
+      <c r="I107" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J107" s="2"/>
+      <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C108" s="5" t="s">
+      <c r="B108" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D108" s="2"/>
@@ -11617,20 +11611,20 @@
       <c r="H108" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I108" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J108" s="8"/>
-      <c r="K108" s="7"/>
+      <c r="I108" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>376</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -11644,20 +11638,20 @@
       <c r="H109" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I109" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J109" s="8"/>
-      <c r="K109" s="7"/>
+      <c r="I109" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -11669,20 +11663,20 @@
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J110" s="8"/>
-      <c r="K110" s="7"/>
+      <c r="I110" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="4"/>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -11694,20 +11688,20 @@
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="7"/>
+      <c r="I111" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -11719,20 +11713,20 @@
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J112" s="8"/>
-      <c r="K112" s="7"/>
+      <c r="I112" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" s="4"/>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D113" s="2"/>
@@ -11742,20 +11736,20 @@
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J113" s="8"/>
-      <c r="K113" s="7"/>
+      <c r="I113" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="4"/>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B114" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>379</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -11767,20 +11761,20 @@
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J114" s="8"/>
-      <c r="K114" s="7"/>
+      <c r="I114" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="4"/>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B115" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="B115" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -11792,20 +11786,20 @@
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J115" s="8"/>
-      <c r="K115" s="7"/>
+      <c r="I115" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="K115" s="4"/>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B116" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C116" s="5" t="s">
+      <c r="B116" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>381</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -11817,20 +11811,20 @@
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J116" s="8"/>
-      <c r="K116" s="7"/>
+      <c r="I116" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C117" s="5" t="s">
+      <c r="B117" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -11844,20 +11838,20 @@
       <c r="H117" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I117" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J117" s="8"/>
-      <c r="K117" s="7"/>
+      <c r="I117" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="K117" s="4"/>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B118" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C118" s="5" t="s">
+      <c r="B118" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>379</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -11869,20 +11863,20 @@
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J118" s="8"/>
-      <c r="K118" s="7"/>
+      <c r="I118" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C119" s="5" t="s">
+      <c r="B119" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -11896,20 +11890,20 @@
       <c r="H119" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I119" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J119" s="8"/>
-      <c r="K119" s="7"/>
+      <c r="I119" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C120" s="5" t="s">
+      <c r="B120" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>385</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -11921,20 +11915,20 @@
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J120" s="8"/>
-      <c r="K120" s="7"/>
+      <c r="I120" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="K120" s="4"/>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C121" s="5" t="s">
+      <c r="B121" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -11948,20 +11942,20 @@
       <c r="H121" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I121" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J121" s="8"/>
-      <c r="K121" s="7"/>
+      <c r="I121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C122" s="5" t="s">
+      <c r="B122" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -11973,20 +11967,20 @@
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J122" s="8"/>
-      <c r="K122" s="7"/>
+      <c r="I122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C123" s="5" t="s">
+      <c r="B123" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D123" s="2"/>
@@ -11998,20 +11992,20 @@
       <c r="H123" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I123" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J123" s="8"/>
-      <c r="K123" s="7"/>
+      <c r="I123" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B124" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C124" s="5" t="s">
+      <c r="B124" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D124" s="2"/>
@@ -12023,20 +12017,20 @@
       <c r="H124" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I124" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J124" s="8"/>
-      <c r="K124" s="7"/>
+      <c r="I124" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J124" s="2"/>
+      <c r="K124" s="4"/>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="B125" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>393</v>
       </c>
       <c r="D125" s="2"/>
@@ -12048,20 +12042,20 @@
       <c r="H125" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I125" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J125" s="8"/>
-      <c r="K125" s="7"/>
+      <c r="I125" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="K125" s="4"/>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C126" s="5" t="s">
+      <c r="B126" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D126" s="2"/>
@@ -12073,20 +12067,20 @@
       <c r="H126" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I126" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J126" s="8"/>
-      <c r="K126" s="7"/>
+      <c r="I126" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="K126" s="4"/>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C127" s="5"/>
+      <c r="B127" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2" t="s">
@@ -12096,22 +12090,22 @@
       <c r="H127" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I127" s="8">
-        <v>0</v>
-      </c>
-      <c r="J127" s="8" t="s">
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K127" s="7"/>
+      <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B128" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C128" s="5"/>
+      <c r="B128" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
@@ -12121,20 +12115,20 @@
       <c r="H128" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I128" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J128" s="8"/>
-      <c r="K128" s="7"/>
+      <c r="I128" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B129" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C129" s="5"/>
+      <c r="B129" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
@@ -12146,20 +12140,20 @@
       <c r="H129" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I129" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J129" s="8"/>
-      <c r="K129" s="7"/>
+      <c r="I129" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="K129" s="4"/>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B130" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C130" s="5" t="s">
+      <c r="B130" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D130" s="2"/>
@@ -12173,20 +12167,20 @@
       <c r="H130" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I130" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J130" s="8"/>
-      <c r="K130" s="7"/>
+      <c r="I130" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B131" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C131" s="5" t="s">
+      <c r="B131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D131" s="2"/>
@@ -12200,22 +12194,22 @@
       <c r="H131" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I131" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="J131" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K131" s="7"/>
+      <c r="K131" s="4"/>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B132" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C132" s="5" t="s">
+      <c r="B132" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D132" s="2"/>
@@ -12227,20 +12221,20 @@
       <c r="H132" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I132" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J132" s="8"/>
-      <c r="K132" s="7"/>
+      <c r="I132" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J132" s="2"/>
+      <c r="K132" s="4"/>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B133" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C133" s="5" t="s">
+      <c r="B133" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D133" s="2"/>
@@ -12252,20 +12246,20 @@
       <c r="H133" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I133" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J133" s="8"/>
-      <c r="K133" s="7"/>
+      <c r="I133" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B134" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="B134" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D134" s="2"/>
@@ -12277,20 +12271,20 @@
       <c r="H134" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I134" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J134" s="8"/>
-      <c r="K134" s="7"/>
+      <c r="I134" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B135" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C135" s="5" t="s">
+      <c r="B135" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -12306,20 +12300,20 @@
       <c r="H135" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I135" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J135" s="8"/>
-      <c r="K135" s="7"/>
+      <c r="I135" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="4"/>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B136" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="B136" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -12335,22 +12329,22 @@
       <c r="H136" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I136" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J136" s="8"/>
-      <c r="K136" s="7" t="s">
+      <c r="I136" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J136" s="2"/>
+      <c r="K136" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B137" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D137" s="2"/>
@@ -12358,30 +12352,30 @@
       <c r="F137" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G137" s="2">
-        <v>255</v>
+      <c r="G137" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I137" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J137" s="8"/>
-      <c r="K137" s="7"/>
+      <c r="I137" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J137" s="2"/>
+      <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B138" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C138" s="5" t="s">
+      <c r="B138" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E138" s="2">
         <v>4</v>
@@ -12393,20 +12387,22 @@
       <c r="H138" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I138" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J138" s="8"/>
-      <c r="K138" s="7"/>
+      <c r="I138" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J138" s="2"/>
+      <c r="K138" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C139" s="5" t="s">
+      <c r="B139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -12422,20 +12418,22 @@
       <c r="H139" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I139" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J139" s="8"/>
-      <c r="K139" s="7"/>
+      <c r="I139" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B140" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C140" s="5" t="s">
+      <c r="B140" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -12451,20 +12449,20 @@
       <c r="H140" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I140" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J140" s="8"/>
-      <c r="K140" s="7"/>
+      <c r="I140" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J140" s="2"/>
+      <c r="K140" s="4"/>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B141" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C141" s="5" t="s">
+      <c r="B141" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -12480,22 +12478,22 @@
       <c r="H141" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I141" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J141" s="8"/>
+      <c r="I141" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J141" s="2"/>
       <c r="K141" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B142" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C142" s="5" t="s">
+      <c r="B142" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -12511,22 +12509,22 @@
       <c r="H142" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I142" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J142" s="8"/>
+      <c r="I142" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J142" s="2"/>
       <c r="K142" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B143" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C143" s="5" t="s">
+      <c r="B143" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -12542,20 +12540,20 @@
       <c r="H143" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I143" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J143" s="8"/>
-      <c r="K143" s="7"/>
+      <c r="I143" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J143" s="2"/>
+      <c r="K143" s="4"/>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B144" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C144" s="5" t="s">
+      <c r="B144" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -12571,22 +12569,22 @@
       <c r="H144" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I144" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J144" s="8"/>
+      <c r="I144" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J144" s="2"/>
       <c r="K144" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B145" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C145" s="5" t="s">
+      <c r="B145" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -12602,22 +12600,22 @@
       <c r="H145" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I145" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J145" s="8"/>
+      <c r="I145" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J145" s="2"/>
       <c r="K145" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B146" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C146" s="5" t="s">
+      <c r="B146" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -12633,22 +12631,22 @@
       <c r="H146" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I146" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J146" s="8"/>
+      <c r="I146" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J146" s="2"/>
       <c r="K146" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C147" s="5" t="s">
+      <c r="B147" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>408</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -12664,22 +12662,22 @@
       <c r="H147" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="I147" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J147" s="8"/>
+      <c r="I147" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J147" s="2"/>
       <c r="K147" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B148" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C148" s="5" t="s">
+      <c r="B148" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -12695,20 +12693,20 @@
       <c r="H148" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I148" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J148" s="8"/>
-      <c r="K148" s="7"/>
+      <c r="I148" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J148" s="2"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B149" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C149" s="5" t="s">
+      <c r="B149" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>412</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -12724,20 +12722,20 @@
       <c r="H149" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I149" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J149" s="8"/>
-      <c r="K149" s="7"/>
+      <c r="I149" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J149" s="2"/>
+      <c r="K149" s="4"/>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B150" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C150" s="5" t="s">
+      <c r="B150" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -12753,20 +12751,20 @@
       <c r="H150" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I150" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J150" s="8"/>
-      <c r="K150" s="7"/>
+      <c r="I150" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J150" s="2"/>
+      <c r="K150" s="4"/>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B151" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C151" s="5" t="s">
+      <c r="B151" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D151" s="2"/>
@@ -12780,20 +12778,20 @@
       <c r="H151" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I151" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J151" s="8"/>
-      <c r="K151" s="7"/>
+      <c r="I151" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J151" s="2"/>
+      <c r="K151" s="4"/>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B152" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C152" s="5" t="s">
+      <c r="B152" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -12807,20 +12805,20 @@
       <c r="H152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I152" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J152" s="8"/>
-      <c r="K152" s="7"/>
+      <c r="I152" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J152" s="2"/>
+      <c r="K152" s="4"/>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B153" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C153" s="5" t="s">
+      <c r="B153" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -12834,20 +12832,20 @@
       <c r="H153" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I153" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J153" s="8"/>
-      <c r="K153" s="7"/>
+      <c r="I153" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J153" s="2"/>
+      <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C154" s="5" t="s">
+      <c r="B154" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D154" s="2"/>
@@ -12861,20 +12859,20 @@
       <c r="H154" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I154" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J154" s="8"/>
-      <c r="K154" s="7"/>
+      <c r="I154" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J154" s="2"/>
+      <c r="K154" s="4"/>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B155" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C155" s="5" t="s">
+      <c r="B155" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D155" s="2"/>
@@ -12888,20 +12886,20 @@
       <c r="H155" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I155" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J155" s="8"/>
-      <c r="K155" s="7"/>
+      <c r="I155" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="K155" s="4"/>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B156" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C156" s="5" t="s">
+      <c r="B156" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -12915,20 +12913,20 @@
       <c r="H156" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I156" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J156" s="8"/>
-      <c r="K156" s="7"/>
+      <c r="I156" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="K156" s="4"/>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B157" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C157" s="5" t="s">
+      <c r="B157" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D157" s="2"/>
@@ -12938,20 +12936,20 @@
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J157" s="8"/>
-      <c r="K157" s="7"/>
+      <c r="I157" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="K157" s="4"/>
     </row>
     <row r="158" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B158" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C158" s="5" t="s">
+      <c r="B158" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -12965,20 +12963,20 @@
       <c r="H158" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I158" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J158" s="8"/>
-      <c r="K158" s="7"/>
+      <c r="I158" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J158" s="2"/>
+      <c r="K158" s="4"/>
     </row>
     <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B159" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C159" s="5" t="s">
+      <c r="B159" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -12992,20 +12990,20 @@
       <c r="H159" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I159" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J159" s="8"/>
-      <c r="K159" s="7"/>
+      <c r="I159" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J159" s="2"/>
+      <c r="K159" s="4"/>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B160" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C160" s="5" t="s">
+      <c r="B160" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -13019,20 +13017,20 @@
       <c r="H160" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I160" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J160" s="8"/>
-      <c r="K160" s="7"/>
+      <c r="I160" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J160" s="2"/>
+      <c r="K160" s="4"/>
     </row>
     <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B161" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C161" s="5" t="s">
+      <c r="B161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -13046,20 +13044,20 @@
       <c r="H161" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I161" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J161" s="8"/>
-      <c r="K161" s="7"/>
+      <c r="I161" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J161" s="2"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B162" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C162" s="5" t="s">
+      <c r="B162" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -13071,20 +13069,20 @@
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J162" s="8"/>
-      <c r="K162" s="7"/>
+      <c r="I162" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J162" s="2"/>
+      <c r="K162" s="4"/>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B163" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C163" s="5" t="s">
+      <c r="B163" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -13096,20 +13094,20 @@
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
-      <c r="I163" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J163" s="8"/>
-      <c r="K163" s="7"/>
+      <c r="I163" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="4"/>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B164" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C164" s="5" t="s">
+      <c r="B164" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D164" s="2"/>
@@ -13119,20 +13117,20 @@
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J164" s="8"/>
-      <c r="K164" s="7"/>
+      <c r="I164" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J164" s="2"/>
+      <c r="K164" s="4"/>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B165" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C165" s="5" t="s">
+      <c r="B165" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -13148,20 +13146,20 @@
       <c r="H165" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I165" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J165" s="8"/>
-      <c r="K165" s="7"/>
+      <c r="I165" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J165" s="2"/>
+      <c r="K165" s="4"/>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B166" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C166" s="5" t="s">
+      <c r="B166" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>421</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -13177,20 +13175,20 @@
       <c r="H166" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I166" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J166" s="8"/>
-      <c r="K166" s="7"/>
+      <c r="I166" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J166" s="2"/>
+      <c r="K166" s="4"/>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B167" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C167" s="5" t="s">
+      <c r="B167" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -13204,20 +13202,20 @@
       <c r="H167" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I167" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J167" s="8"/>
-      <c r="K167" s="7"/>
+      <c r="I167" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J167" s="2"/>
+      <c r="K167" s="4"/>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B168" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C168" s="5"/>
+      <c r="B168" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2" t="s">
@@ -13227,22 +13225,22 @@
       <c r="H168" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I168" s="8">
-        <v>0</v>
-      </c>
-      <c r="J168" s="8" t="s">
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K168" s="7"/>
+      <c r="K168" s="4"/>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B169" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C169" s="5"/>
+      <c r="B169" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C169" s="4"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2" t="s">
@@ -13252,20 +13250,20 @@
       <c r="H169" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I169" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J169" s="8"/>
-      <c r="K169" s="7"/>
+      <c r="I169" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J169" s="2"/>
+      <c r="K169" s="4"/>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B170" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C170" s="5"/>
+      <c r="B170" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2" t="s">
@@ -13277,20 +13275,20 @@
       <c r="H170" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I170" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J170" s="8"/>
-      <c r="K170" s="7"/>
+      <c r="I170" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J170" s="2"/>
+      <c r="K170" s="4"/>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B171" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C171" s="5" t="s">
+      <c r="B171" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D171" s="2"/>
@@ -13304,20 +13302,20 @@
       <c r="H171" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I171" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J171" s="8"/>
-      <c r="K171" s="7"/>
+      <c r="I171" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J171" s="2"/>
+      <c r="K171" s="4"/>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B172" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C172" s="5" t="s">
+      <c r="B172" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D172" s="2"/>
@@ -13331,22 +13329,22 @@
       <c r="H172" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I172" s="8" t="s">
+      <c r="I172" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J172" s="8" t="s">
+      <c r="J172" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K172" s="7"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B173" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C173" s="5" t="s">
+      <c r="B173" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D173" s="2"/>
@@ -13358,20 +13356,20 @@
       <c r="H173" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I173" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J173" s="8"/>
-      <c r="K173" s="7"/>
+      <c r="I173" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J173" s="2"/>
+      <c r="K173" s="4"/>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B174" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C174" s="5" t="s">
+      <c r="B174" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D174" s="2"/>
@@ -13383,20 +13381,20 @@
       <c r="H174" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I174" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J174" s="8"/>
-      <c r="K174" s="7"/>
+      <c r="I174" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J174" s="2"/>
+      <c r="K174" s="4"/>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B175" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C175" s="5" t="s">
+      <c r="B175" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D175" s="2"/>
@@ -13408,20 +13406,20 @@
       <c r="H175" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I175" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J175" s="8"/>
-      <c r="K175" s="7"/>
+      <c r="I175" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J175" s="2"/>
+      <c r="K175" s="4"/>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B176" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C176" s="5" t="s">
+      <c r="B176" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>424</v>
       </c>
       <c r="D176" s="2"/>
@@ -13433,20 +13431,20 @@
       <c r="H176" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I176" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J176" s="8"/>
-      <c r="K176" s="7"/>
+      <c r="I176" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J176" s="2"/>
+      <c r="K176" s="4"/>
     </row>
     <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B177" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C177" s="5" t="s">
+      <c r="B177" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -13462,20 +13460,20 @@
       <c r="H177" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I177" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J177" s="8"/>
-      <c r="K177" s="7"/>
+      <c r="I177" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J177" s="2"/>
+      <c r="K177" s="4"/>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B178" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C178" s="5" t="s">
+      <c r="B178" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>426</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -13491,20 +13489,20 @@
       <c r="H178" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I178" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J178" s="8"/>
-      <c r="K178" s="7"/>
+      <c r="I178" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J178" s="2"/>
+      <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B179" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C179" s="5" t="s">
+      <c r="B179" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -13520,20 +13518,20 @@
       <c r="H179" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I179" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J179" s="8"/>
-      <c r="K179" s="7"/>
+      <c r="I179" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J179" s="2"/>
+      <c r="K179" s="4"/>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C180" s="5" t="s">
+      <c r="B180" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -13549,20 +13547,20 @@
       <c r="H180" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I180" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J180" s="8"/>
-      <c r="K180" s="7"/>
+      <c r="I180" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J180" s="2"/>
+      <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B181" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C181" s="5" t="s">
+      <c r="B181" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -13578,20 +13576,20 @@
       <c r="H181" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I181" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J181" s="8"/>
-      <c r="K181" s="7"/>
+      <c r="I181" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J181" s="2"/>
+      <c r="K181" s="4"/>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B182" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C182" s="5" t="s">
+      <c r="B182" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -13607,20 +13605,20 @@
       <c r="H182" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I182" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J182" s="8"/>
-      <c r="K182" s="7"/>
+      <c r="I182" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J182" s="2"/>
+      <c r="K182" s="4"/>
     </row>
     <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B183" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C183" s="5" t="s">
+      <c r="B183" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -13636,20 +13634,20 @@
       <c r="H183" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I183" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J183" s="8"/>
-      <c r="K183" s="7"/>
+      <c r="I183" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J183" s="2"/>
+      <c r="K183" s="4"/>
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B184" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C184" s="5" t="s">
+      <c r="B184" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -13663,22 +13661,22 @@
       <c r="H184" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I184" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J184" s="8"/>
+      <c r="I184" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J184" s="2"/>
       <c r="K184" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B185" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C185" s="5" t="s">
+      <c r="B185" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -13696,20 +13694,20 @@
       <c r="H185" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I185" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J185" s="8"/>
-      <c r="K185" s="7"/>
+      <c r="I185" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J185" s="2"/>
+      <c r="K185" s="4"/>
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B186" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="B186" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D186" s="2"/>
@@ -13723,20 +13721,20 @@
       <c r="H186" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I186" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J186" s="8"/>
-      <c r="K186" s="7"/>
+      <c r="I186" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J186" s="2"/>
+      <c r="K186" s="4"/>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B187" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C187" s="5" t="s">
+      <c r="B187" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D187" s="2"/>
@@ -13750,20 +13748,20 @@
       <c r="H187" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I187" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J187" s="8"/>
-      <c r="K187" s="7"/>
+      <c r="I187" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J187" s="2"/>
+      <c r="K187" s="4"/>
     </row>
     <row r="188" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B188" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C188" s="5" t="s">
+      <c r="B188" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D188" s="2"/>
@@ -13777,20 +13775,20 @@
       <c r="H188" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I188" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J188" s="8"/>
-      <c r="K188" s="7"/>
+      <c r="I188" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J188" s="2"/>
+      <c r="K188" s="4"/>
     </row>
     <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B189" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C189" s="5" t="s">
+      <c r="B189" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D189" s="2"/>
@@ -13802,20 +13800,20 @@
       <c r="H189" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I189" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J189" s="8"/>
-      <c r="K189" s="7"/>
+      <c r="I189" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J189" s="2"/>
+      <c r="K189" s="4"/>
     </row>
     <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B190" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C190" s="5" t="s">
+      <c r="B190" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D190" s="2"/>
@@ -13827,20 +13825,20 @@
       <c r="H190" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I190" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J190" s="8"/>
-      <c r="K190" s="7"/>
+      <c r="I190" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J190" s="2"/>
+      <c r="K190" s="4"/>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B191" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C191" s="5" t="s">
+      <c r="B191" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -13852,20 +13850,20 @@
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
-      <c r="I191" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J191" s="8"/>
-      <c r="K191" s="7"/>
+      <c r="I191" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J191" s="2"/>
+      <c r="K191" s="4"/>
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B192" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C192" s="5" t="s">
+      <c r="B192" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -13877,20 +13875,20 @@
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
-      <c r="I192" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J192" s="8"/>
-      <c r="K192" s="7"/>
+      <c r="I192" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J192" s="2"/>
+      <c r="K192" s="4"/>
     </row>
     <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B193" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C193" s="5" t="s">
+      <c r="B193" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -13902,20 +13900,20 @@
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
-      <c r="I193" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J193" s="8"/>
-      <c r="K193" s="7"/>
+      <c r="I193" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J193" s="2"/>
+      <c r="K193" s="4"/>
     </row>
     <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B194" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C194" s="5" t="s">
+      <c r="B194" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -13927,20 +13925,20 @@
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
-      <c r="I194" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J194" s="8"/>
-      <c r="K194" s="7"/>
+      <c r="I194" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J194" s="2"/>
+      <c r="K194" s="4"/>
     </row>
     <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B195" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C195" s="5" t="s">
+      <c r="B195" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -13952,20 +13950,20 @@
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
-      <c r="I195" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J195" s="8"/>
-      <c r="K195" s="7"/>
+      <c r="I195" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J195" s="2"/>
+      <c r="K195" s="4"/>
     </row>
     <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B196" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C196" s="5" t="s">
+      <c r="B196" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D196" s="2"/>
@@ -13975,20 +13973,20 @@
       </c>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
-      <c r="I196" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J196" s="8"/>
-      <c r="K196" s="7"/>
+      <c r="I196" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J196" s="2"/>
+      <c r="K196" s="4"/>
     </row>
     <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B197" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C197" s="5" t="s">
+      <c r="B197" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D197" s="2"/>
@@ -14002,20 +14000,20 @@
       <c r="H197" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I197" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J197" s="8"/>
-      <c r="K197" s="7"/>
+      <c r="I197" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J197" s="2"/>
+      <c r="K197" s="4"/>
     </row>
     <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B198" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C198" s="5" t="s">
+      <c r="B198" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D198" s="2"/>
@@ -14029,20 +14027,20 @@
       <c r="H198" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I198" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J198" s="8"/>
-      <c r="K198" s="7"/>
+      <c r="I198" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J198" s="2"/>
+      <c r="K198" s="4"/>
     </row>
     <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B199" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C199" s="5" t="s">
+      <c r="B199" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D199" s="2"/>
@@ -14051,25 +14049,25 @@
         <v>129</v>
       </c>
       <c r="G199" s="2">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I199" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J199" s="8"/>
-      <c r="K199" s="7"/>
+      <c r="I199" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J199" s="2"/>
+      <c r="K199" s="4"/>
     </row>
     <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B200" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C200" s="5" t="s">
+      <c r="B200" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -14085,22 +14083,22 @@
       <c r="H200" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="I200" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J200" s="8"/>
+      <c r="I200" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J200" s="2"/>
       <c r="K200" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B201" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C201" s="5"/>
+      <c r="B201" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C201" s="4"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2" t="s">
@@ -14110,22 +14108,22 @@
       <c r="H201" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I201" s="8">
-        <v>0</v>
-      </c>
-      <c r="J201" s="8" t="s">
+      <c r="I201" s="2">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K201" s="7"/>
-    </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
+      <c r="K201" s="4"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B202" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C202" s="5"/>
+      <c r="B202" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202" s="4"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2" t="s">
@@ -14135,20 +14133,20 @@
       <c r="H202" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I202" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J202" s="8"/>
-      <c r="K202" s="7"/>
-    </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
+      <c r="I202" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J202" s="2"/>
+      <c r="K202" s="4"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B203" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C203" s="5"/>
+      <c r="B203" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" s="4"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2" t="s">
@@ -14160,20 +14158,20 @@
       <c r="H203" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I203" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J203" s="8"/>
-      <c r="K203" s="7"/>
-    </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8" t="s">
+      <c r="I203" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J203" s="2"/>
+      <c r="K203" s="4"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B204" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C204" s="5" t="s">
+      <c r="B204" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D204" s="2"/>
@@ -14187,20 +14185,20 @@
       <c r="H204" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I204" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J204" s="8"/>
-      <c r="K204" s="7"/>
-    </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+      <c r="I204" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J204" s="2"/>
+      <c r="K204" s="4"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B205" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="B205" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -14214,20 +14212,20 @@
       <c r="H205" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I205" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J205" s="8"/>
-      <c r="K205" s="7"/>
-    </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
+      <c r="I205" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J205" s="2"/>
+      <c r="K205" s="4"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B206" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C206" s="5" t="s">
+      <c r="B206" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D206" s="2"/>
@@ -14241,22 +14239,22 @@
       <c r="H206" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I206" s="8" t="s">
+      <c r="I206" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J206" s="8" t="s">
+      <c r="J206" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K206" s="7"/>
-    </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
+      <c r="K206" s="4"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B207" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C207" s="5" t="s">
+      <c r="B207" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>436</v>
       </c>
       <c r="D207" s="2"/>
@@ -14270,20 +14268,20 @@
       <c r="H207" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I207" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J207" s="8"/>
-      <c r="K207" s="7"/>
-    </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8" t="s">
+      <c r="I207" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J207" s="2"/>
+      <c r="K207" s="4"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B208" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C208" s="5" t="s">
+      <c r="B208" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D208" s="2"/>
@@ -14297,20 +14295,20 @@
       <c r="H208" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I208" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J208" s="8"/>
-      <c r="K208" s="7"/>
-    </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8" t="s">
+      <c r="I208" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J208" s="2"/>
+      <c r="K208" s="4"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B209" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C209" s="5" t="s">
+      <c r="B209" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>440</v>
       </c>
       <c r="D209" s="2"/>
@@ -14324,20 +14322,20 @@
       <c r="H209" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I209" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J209" s="8"/>
-      <c r="K209" s="7"/>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8" t="s">
+      <c r="I209" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J209" s="2"/>
+      <c r="K209" s="4"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B210" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C210" s="5" t="s">
+      <c r="B210" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -14351,11 +14349,11 @@
       <c r="H210" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I210" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J210" s="8"/>
-      <c r="K210" s="7"/>
+      <c r="I210" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J210" s="2"/>
+      <c r="K210" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testlab-db/neware_database_master2.xlsx
+++ b/testlab-db/neware_database_master2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://basquevolt-my.sharepoint.com/personal/ecalandrini_basquevolt_com/Documents/Documents/Lavoro/Software/NewareDB/testlab-db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{F5CC27F1-63FB-4B55-A392-FA796873BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46276A4B-E17D-4221-9755-05CEF8456E6C}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{F5CC27F1-63FB-4B55-A392-FA796873BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB434443-B0FD-4E26-BF07-316D3013C5C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{F9E3BB05-05FB-4358-BC5E-97EF2B4FB956}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="455">
   <si>
     <t>computer_name</t>
   </si>
@@ -1625,7 +1625,7 @@
   <autoFilter ref="A1:K210" xr:uid="{2AF3C50B-29E8-4820-8C07-E4AE3DEFB3B3}">
     <filterColumn colId="0">
       <filters>
-        <filter val="log"/>
+        <filter val="step"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -8571,7 +8571,7 @@
   <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10822,7 +10822,9 @@
         <v>443</v>
       </c>
       <c r="J79" s="2"/>
-      <c r="K79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -11484,7 +11486,9 @@
         <v>443</v>
       </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="4"/>
+      <c r="K103" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -11630,7 +11634,9 @@
       <c r="D109" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>4</v>
+      </c>
       <c r="F109" s="2" t="s">
         <v>129</v>
       </c>
@@ -11657,7 +11663,9 @@
       <c r="D110" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2">
+        <v>4</v>
+      </c>
       <c r="F110" s="2" t="s">
         <v>129</v>
       </c>
@@ -11682,7 +11690,9 @@
       <c r="D111" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="2">
+        <v>4</v>
+      </c>
       <c r="F111" s="2" t="s">
         <v>129</v>
       </c>
@@ -11707,7 +11717,9 @@
       <c r="D112" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="E112" s="2">
+        <v>4</v>
+      </c>
       <c r="F112" s="2" t="s">
         <v>129</v>
       </c>
@@ -11730,7 +11742,9 @@
         <v>378</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="2">
+        <v>4</v>
+      </c>
       <c r="F113" s="2" t="s">
         <v>129</v>
       </c>
@@ -11755,7 +11769,9 @@
       <c r="D114" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2">
+        <v>4</v>
+      </c>
       <c r="F114" s="2" t="s">
         <v>129</v>
       </c>
@@ -11772,7 +11788,7 @@
         <v>44</v>
       </c>
       <c r="B115" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>380</v>
@@ -11780,7 +11796,9 @@
       <c r="D115" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2">
+        <v>4</v>
+      </c>
       <c r="F115" s="2" t="s">
         <v>131</v>
       </c>
@@ -11805,7 +11823,9 @@
       <c r="D116" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2">
+        <v>4</v>
+      </c>
       <c r="F116" s="2" t="s">
         <v>129</v>
       </c>
@@ -11830,7 +11850,9 @@
       <c r="D117" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2">
+        <v>4</v>
+      </c>
       <c r="F117" s="2" t="s">
         <v>131</v>
       </c>
@@ -11857,7 +11879,9 @@
       <c r="D118" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>4</v>
+      </c>
       <c r="F118" s="2" t="s">
         <v>129</v>
       </c>
@@ -11882,7 +11906,9 @@
       <c r="D119" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2">
+        <v>4</v>
+      </c>
       <c r="F119" s="2" t="s">
         <v>131</v>
       </c>
@@ -11909,7 +11935,9 @@
       <c r="D120" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2">
+        <v>4</v>
+      </c>
       <c r="F120" s="2" t="s">
         <v>129</v>
       </c>
@@ -11934,7 +11962,9 @@
       <c r="D121" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2">
+        <v>4</v>
+      </c>
       <c r="F121" s="2" t="s">
         <v>131</v>
       </c>
@@ -11961,7 +11991,9 @@
       <c r="D122" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2">
+        <v>4</v>
+      </c>
       <c r="F122" s="2" t="s">
         <v>129</v>
       </c>
@@ -11983,8 +12015,12 @@
       <c r="C123" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="D123" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E123" s="2">
+        <v>4</v>
+      </c>
       <c r="F123" s="2" t="s">
         <v>131</v>
       </c>
@@ -12008,8 +12044,12 @@
       <c r="C124" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E124" s="2">
+        <v>4</v>
+      </c>
       <c r="F124" s="2" t="s">
         <v>131</v>
       </c>
@@ -12033,8 +12073,12 @@
       <c r="C125" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4</v>
+      </c>
       <c r="F125" s="2" t="s">
         <v>131</v>
       </c>
@@ -12058,8 +12102,12 @@
       <c r="C126" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E126" s="2">
+        <v>4</v>
+      </c>
       <c r="F126" s="2" t="s">
         <v>131</v>
       </c>
@@ -12073,7 +12121,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
@@ -12098,7 +12146,7 @@
       </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>54</v>
       </c>
@@ -12121,7 +12169,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>54</v>
       </c>
@@ -12146,7 +12194,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>54</v>
       </c>
@@ -12173,7 +12221,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>54</v>
       </c>
@@ -12202,7 +12250,7 @@
       </c>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>54</v>
       </c>
@@ -12227,7 +12275,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>54</v>
       </c>
@@ -12252,7 +12300,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>54</v>
       </c>
@@ -12277,7 +12325,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>54</v>
       </c>
@@ -12306,7 +12354,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
@@ -12337,7 +12385,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
@@ -12364,7 +12412,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>54</v>
       </c>
@@ -12395,7 +12443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>54</v>
       </c>
@@ -12455,7 +12503,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>54</v>
       </c>
@@ -12486,7 +12534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>54</v>
       </c>
@@ -12546,7 +12594,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>54</v>
       </c>
@@ -12577,7 +12625,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>54</v>
       </c>
@@ -12608,7 +12656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>54</v>
       </c>
@@ -12639,7 +12687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>54</v>
       </c>
@@ -12670,7 +12718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>54</v>
       </c>
@@ -12699,7 +12747,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>54</v>
       </c>
@@ -12728,7 +12776,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>54</v>
       </c>
@@ -12757,7 +12805,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>54</v>
       </c>
@@ -12784,7 +12832,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>54</v>
       </c>
@@ -12811,7 +12859,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>54</v>
       </c>
@@ -12838,7 +12886,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>54</v>
       </c>
@@ -12865,7 +12913,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>54</v>
       </c>
@@ -12892,7 +12940,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>54</v>
       </c>
@@ -12942,7 +12990,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>54</v>
       </c>
@@ -12969,7 +13017,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>54</v>
       </c>
@@ -12996,7 +13044,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>54</v>
       </c>
@@ -13023,7 +13071,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>54</v>
       </c>
@@ -13123,7 +13171,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>54</v>
       </c>
@@ -13152,7 +13200,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>54</v>
       </c>
@@ -13181,7 +13229,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>54</v>
       </c>
@@ -14091,7 +14139,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>137</v>
       </c>
@@ -14116,7 +14164,7 @@
       </c>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>137</v>
       </c>
@@ -14139,7 +14187,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>137</v>
       </c>
@@ -14164,7 +14212,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>137</v>
       </c>
@@ -14191,7 +14239,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>137</v>
       </c>
@@ -14218,7 +14266,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>137</v>
       </c>
@@ -14247,7 +14295,7 @@
       </c>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>137</v>
       </c>
@@ -14274,7 +14322,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>137</v>
       </c>
@@ -14301,7 +14349,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>137</v>
       </c>
@@ -14328,7 +14376,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>137</v>
       </c>

--- a/testlab-db/neware_database_master2.xlsx
+++ b/testlab-db/neware_database_master2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://basquevolt-my.sharepoint.com/personal/ecalandrini_basquevolt_com/Documents/Documents/Lavoro/Software/NewareDB/testlab-db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{F5CC27F1-63FB-4B55-A392-FA796873BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB434443-B0FD-4E26-BF07-316D3013C5C7}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="8_{F5CC27F1-63FB-4B55-A392-FA796873BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A28ADC2B-3096-4B70-B8AA-E978A45D5431}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{F9E3BB05-05FB-4358-BC5E-97EF2B4FB956}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="21810" windowHeight="20970" activeTab="1" xr2:uid="{F9E3BB05-05FB-4358-BC5E-97EF2B4FB956}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="458">
   <si>
     <t>computer_name</t>
   </si>
@@ -1414,6 +1414,15 @@
   </si>
   <si>
     <t>`150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aux_single_voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aux_single_temperature</t>
+  </si>
+  <si>
+    <t>aux_temperature</t>
   </si>
 </sst>
 </file>
@@ -1625,12 +1634,7 @@
   <autoFilter ref="A1:K210" xr:uid="{2AF3C50B-29E8-4820-8C07-E4AE3DEFB3B3}">
     <filterColumn colId="0">
       <filters>
-        <filter val="step"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TRUE"/>
+        <filter val="log"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1970,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E231686A-ED7E-47C8-99ED-C3B9B1E077F6}">
   <dimension ref="A1:W187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:R1048576"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8571,7 +8575,7 @@
   <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9725,7 +9729,7 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>111</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9756,7 +9760,7 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>112</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11842,7 +11846,7 @@
         <v>44</v>
       </c>
       <c r="B117" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>382</v>
@@ -12121,7 +12125,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
@@ -12146,7 +12150,7 @@
       </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>54</v>
       </c>
@@ -12169,7 +12173,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>54</v>
       </c>
@@ -12194,7 +12198,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>54</v>
       </c>
@@ -12221,7 +12225,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>54</v>
       </c>
@@ -12250,7 +12254,7 @@
       </c>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>54</v>
       </c>
@@ -12275,7 +12279,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>54</v>
       </c>
@@ -12300,7 +12304,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>54</v>
       </c>
@@ -12325,7 +12329,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>54</v>
       </c>
@@ -12354,7 +12358,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>54</v>
       </c>
@@ -12385,7 +12389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>54</v>
       </c>
@@ -12412,7 +12416,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>54</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>54</v>
       </c>
@@ -12503,7 +12507,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>54</v>
       </c>
@@ -12534,7 +12538,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>54</v>
       </c>
@@ -12594,7 +12598,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>54</v>
       </c>
@@ -12625,7 +12629,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>54</v>
       </c>
@@ -12656,7 +12660,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>54</v>
       </c>
@@ -12687,7 +12691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>54</v>
       </c>
@@ -12718,7 +12722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>54</v>
       </c>
@@ -12747,7 +12751,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>54</v>
       </c>
@@ -12776,7 +12780,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>54</v>
       </c>
@@ -12805,7 +12809,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="4"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>54</v>
       </c>
@@ -12832,7 +12836,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>54</v>
       </c>
@@ -12859,7 +12863,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>54</v>
       </c>
@@ -12886,7 +12890,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>54</v>
       </c>
@@ -12913,7 +12917,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>54</v>
       </c>
@@ -12940,7 +12944,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>54</v>
       </c>
@@ -12990,7 +12994,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>54</v>
       </c>
@@ -13017,7 +13021,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>54</v>
       </c>
@@ -13044,7 +13048,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>54</v>
       </c>
@@ -13071,7 +13075,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>54</v>
       </c>
@@ -13171,7 +13175,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>54</v>
       </c>
@@ -13200,7 +13204,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>54</v>
       </c>
@@ -13229,7 +13233,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>54</v>
       </c>
@@ -13731,7 +13735,7 @@
         <v>271</v>
       </c>
       <c r="E185" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>129</v>
@@ -13746,7 +13750,9 @@
         <v>443</v>
       </c>
       <c r="J185" s="2"/>
-      <c r="K185" s="4"/>
+      <c r="K185" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -14139,7 +14145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>137</v>
       </c>
@@ -14164,7 +14170,7 @@
       </c>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>137</v>
       </c>
@@ -14187,7 +14193,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>137</v>
       </c>
@@ -14212,7 +14218,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>137</v>
       </c>
@@ -14239,7 +14245,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>137</v>
       </c>
@@ -14266,7 +14272,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>137</v>
       </c>
@@ -14295,7 +14301,7 @@
       </c>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>137</v>
       </c>
@@ -14322,7 +14328,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>137</v>
       </c>
@@ -14349,7 +14355,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>137</v>
       </c>
@@ -14376,7 +14382,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>137</v>
       </c>
